--- a/Question_Sets/Software skills/Working With Generative AI.xlsx
+++ b/Question_Sets/Software skills/Working With Generative AI.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'As a product development manager at a toy manufacturing company, you are charged with creating innovative toy concepts for the next product line. You have been given access to a generative AI tool that can assist with ideation.What should your strategy be?', 'ques_type': 2, 'options': ['Ask the AI tool to generate a wide range of unique toy concepts.', 'Ask the AI tool to create variations of competitors’ popular toy designs.', 'Ask the AI tool for help with technical tasks, such as materials analysis and production.', 'Ask the AI tool to generate toy concepts based on current market trends.'], 'score': 'Ask the AI tool to generate a wide range of unique toy concepts.'}, {'title': 'You are the IT manager of a small business. The company has just implemented a custom AI tool to improve customer service. However, after initial use, it is clear that the tool is not accurately recognizing regional language variations, leading to misunderstandings and customer dissatisfaction.Which action should you take?', 'ques_type': 2, 'options': ['Increase the size of the tool’s language database.', 'Introduce a user feedback system to identify misunderstood phrases.', 'Collect more regional language data and retrain the AI tool.', 'Implement a system for customers to choose their regional language before interacting with the AI tool.'], 'score': 'Collect more regional language data and retrain the AI tool.'}, {'title': 'You are a creative director at an advertising agency exploring the use of a generative AI model to create captivating slogans for a new client&amp;#39s product launch. Your objective is for the AI to generate innovative slogans that emphasize the product&amp;#39s distinctive features.What should be your first move?', 'ques_type': 2, 'options': ['Compile a dataset of consumer responses to previous product slogans.', 'Compile a dataset of your client&amp;#39s previous product slogans.', 'Compile a dataset of competitor products’ campaign slogans.', 'Compile a dataset of the product&amp;#39s distinctive features.'], 'score': 'Compile a dataset of the product&amp;#39s distinctive features.'}, {'title': 'You are an editor at a publishing house and have been using a sophisticated language model to produce book summaries for your website. A journalist has recently uncovered this practice and penned an article criticizing your lack of transparency.Which action should you take?', 'ques_type': 2, 'options': ['Capitalize on the publicity generated by the journalistic piece.', 'Focus on improving the accuracy and comprehensiveness of AI-created book summaries.', 'Contact your legal team to discuss potential copyright infringement or plagiarism issues.', 'Admit to the use of AI publicly and commit to implementing clear disclosures in the future.'], 'score': 'Admit to the use of AI publicly and commit to implementing clear disclosures in the future.'}]</t>
+    <t>questions = [
+    {
+        "title": "As a product development manager at a toy manufacturing company, you are charged with creating innovative toy concepts for the next product line. You have been given access to a generative AI tool that can assist with ideation.What should your strategy be?",
+        "ques_type": 2,
+        "options": [
+            "Ask the AI tool to generate a wide range of unique toy concepts.",
+            "Ask the AI tool to create variations of competitors\u2019 popular toy designs.",
+            "Ask the AI tool for help with technical tasks, such as materials analysis and production.",
+            "Ask the AI tool to generate toy concepts based on current market trends."
+        ],
+        "score": "Ask the AI tool to generate a wide range of unique toy concepts."
+    },
+    {
+        "title": "You are the IT manager of a small business. The company has just implemented a custom AI tool to improve customer service. However, after initial use, it is clear that the tool is not accurately recognizing regional language variations, leading to misunderstandings and customer dissatisfaction.Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Increase the size of the tool\u2019s language database.",
+            "Introduce a user feedback system to identify misunderstood phrases.",
+            "Collect more regional language data and retrain the AI tool.",
+            "Implement a system for customers to choose their regional language before interacting with the AI tool."
+        ],
+        "score": "Collect more regional language data and retrain the AI tool."
+    },
+    {
+        "title": "You are a creative director at an advertising agency exploring the use of a generative AI model to create captivating slogans for a new client&amp;#39s product launch. Your objective is for the AI to generate innovative slogans that emphasize the product&amp;#39s distinctive features.What should be your first move?",
+        "ques_type": 2,
+        "options": [
+            "Compile a dataset of consumer responses to previous product slogans.",
+            "Compile a dataset of your client&amp;#39s previous product slogans.",
+            "Compile a dataset of competitor products\u2019 campaign slogans.",
+            "Compile a dataset of the product&amp;#39s distinctive features."
+        ],
+        "score": "Compile a dataset of the product&amp;#39s distinctive features."
+    },
+    {
+        "title": "You are an editor at a publishing house and have been using a sophisticated language model to produce book summaries for your website. A journalist has recently uncovered this practice and penned an article criticizing your lack of transparency.Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Capitalize on the publicity generated by the journalistic piece.",
+            "Focus on improving the accuracy and comprehensiveness of AI-created book summaries.",
+            "Contact your legal team to discuss potential copyright infringement or plagiarism issues.",
+            "Admit to the use of AI publicly and commit to implementing clear disclosures in the future."
+        ],
+        "score": "Admit to the use of AI publicly and commit to implementing clear disclosures in the future."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
